--- a/fuentes/contenidos/grado10/guion04/CN_10_04_02_CO/EscaletaCN_10_04_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion04/CN_10_04_02_CO/EscaletaCN_10_04_02F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$24</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="204">
   <si>
     <t>Asignatura</t>
   </si>
@@ -398,9 +398,6 @@
     <t>CN_10_04_CO</t>
   </si>
   <si>
-    <t>Dinámica</t>
-  </si>
-  <si>
     <t>4º ESO</t>
   </si>
   <si>
@@ -419,15 +416,6 @@
     <t>Consolidación</t>
   </si>
   <si>
-    <t>La gravedad</t>
-  </si>
-  <si>
-    <t>FQ_10_04</t>
-  </si>
-  <si>
-    <t>Diferencia entre masa y peso</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -446,9 +434,6 @@
     <t>Leyes de Newton</t>
   </si>
   <si>
-    <t>Segunda Ley de Newton</t>
-  </si>
-  <si>
     <t>Aplica la segunda ley de Newton a las poleas</t>
   </si>
   <si>
@@ -566,21 +551,6 @@
     <t>Actividad que propone realizar un experimento para comprender cómo funciona una palanca</t>
   </si>
   <si>
-    <t>Competencias: descomposición de fuerzas</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar un experimento cómo se descomponen las fuerzas en un sistema</t>
-  </si>
-  <si>
-    <t>Competencias: exploración sobre la fuerza de gravedad</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar un experimento para comprobar las características de la fuerza de atracción gravitacional</t>
-  </si>
-  <si>
-    <t>Competencias: comprobacion de la fuerza de la gravedad</t>
-  </si>
-  <si>
     <t>Competencias: experimentar con el equilibrio de fuerzas</t>
   </si>
   <si>
@@ -593,27 +563,12 @@
     <t>Fin de tema</t>
   </si>
   <si>
-    <t>Mapa conceptual del tema Movimiento en una dimensión</t>
-  </si>
-  <si>
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Actividad que evalúa lo aprendido sobre conceptos de fuerzas y pares de fuerzas</t>
-  </si>
-  <si>
-    <t>Actividad que evalúa lo aprendido sobre la gravedad</t>
-  </si>
-  <si>
-    <t>Actividad que evalúa los conceptos aprendidos sobre dinámica</t>
-  </si>
-  <si>
     <t>Realizar cambios como se muestra en cuaderno</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad que permite conocer la diferencia entre el peso y la masa de los cuerpos </t>
-  </si>
-  <si>
     <t>Actividad que permite repasar los principales conceptos de dinámica</t>
   </si>
   <si>
@@ -626,13 +581,64 @@
     <t>Competencias: determinación del coeficiente de fricción</t>
   </si>
   <si>
-    <t>Banco de actividades: Dinámica</t>
-  </si>
-  <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema Dinámica</t>
-  </si>
-  <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Las leyes de las fuerzas</t>
+  </si>
+  <si>
+    <t>Identifica la primera ley de Newton</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema Las leyes de las fuerzas</t>
+  </si>
+  <si>
+    <t>Actividad que evalúa los conceptos aprendidos sobre las leyes de Newton</t>
+  </si>
+  <si>
+    <t>Analiza las características de un sistema en equilibrio</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>Recurso F13-01</t>
+  </si>
+  <si>
+    <t>Analiza la primera ley de Newton</t>
+  </si>
+  <si>
+    <t>Comprende la primera ley de Newton a través de situaciones</t>
+  </si>
+  <si>
+    <t>Recurso M101-01</t>
+  </si>
+  <si>
+    <t>Primera ley de Newton: El equilibrio</t>
+  </si>
+  <si>
+    <t>Aplicación de la segunda Ley de Newton</t>
+  </si>
+  <si>
+    <t>Segunda ley de Newton: Relación masa y cambio de velocidad</t>
+  </si>
+  <si>
+    <t>La segunda ley de Newton: la masa y el cambio en su velocidad</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta la segunda ley de Newton a partir de relaciones entre la masa y la velocidad</t>
+  </si>
+  <si>
+    <t>Recurso F7-01</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema Las leyes de las fuerzas</t>
+  </si>
+  <si>
+    <t>Banco de actividades: Las leyes de las fuerzas</t>
   </si>
 </sst>
 </file>
@@ -827,13 +833,11 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -983,8 +987,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1028,9 +1056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1045,43 +1070,40 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,29 +1112,50 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="173">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1187,6 +1230,18 @@
     <cellStyle name="Hipervínculo" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1261,6 +1316,18 @@
     <cellStyle name="Hipervínculo visitado" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1578,11 +1645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U258"/>
+  <dimension ref="A1:U256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1591,7 +1658,7 @@
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
     <col min="6" max="6" width="33.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="80.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
@@ -1610,96 +1677,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="43"/>
+      <c r="N1" s="41"/>
       <c r="O1" s="31" t="s">
         <v>110</v>
       </c>
       <c r="P1" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="23" t="s">
+    <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="47"/>
-    </row>
-    <row r="3" spans="1:21" ht="16" thickTop="1">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="52"/>
+    </row>
+    <row r="3" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1707,58 +1774,58 @@
         <v>122</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="21">
+        <v>134</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="28">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>124</v>
+      <c r="Q3" s="10">
+        <v>10</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1766,58 +1833,58 @@
         <v>122</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="25" t="s">
-        <v>142</v>
+      <c r="G4" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="H4" s="21">
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>143</v>
+        <v>20</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>124</v>
+      <c r="Q4" s="10">
+        <v>10</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1825,57 +1892,55 @@
         <v>122</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="G5" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="28">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>124</v>
+      <c r="Q5" s="10">
+        <v>10</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15">
@@ -1886,26 +1951,26 @@
         <v>122</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="G6" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="28">
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>149</v>
+      <c r="J6" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -1915,26 +1980,26 @@
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="S6" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15">
@@ -1945,55 +2010,55 @@
         <v>122</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="25" t="s">
-        <v>152</v>
+      <c r="G7" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="H7" s="21">
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>151</v>
+        <v>19</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="S7" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15">
@@ -2004,53 +2069,57 @@
         <v>122</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="G8" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="28">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>155</v>
+        <v>20</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="P8" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="S8" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15">
@@ -2061,26 +2130,26 @@
         <v>122</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="G9" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="28">
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>158</v>
+      <c r="J9" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -2090,28 +2159,26 @@
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>156</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="O9" s="9"/>
       <c r="P9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="S9" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15">
@@ -2122,53 +2189,55 @@
         <v>122</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="25" t="s">
-        <v>160</v>
+      <c r="G10" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="H10" s="21">
         <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>161</v>
+        <v>20</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N10" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="S10" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15">
@@ -2179,55 +2248,53 @@
         <v>122</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>163</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="21">
+      <c r="G11" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="28">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>165</v>
+        <v>19</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="8"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="S11" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15">
@@ -2238,57 +2305,57 @@
         <v>122</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="21">
+        <v>128</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="28">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>168</v>
+        <v>20</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="26" t="s">
-        <v>128</v>
+      <c r="N12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="S12" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15">
@@ -2299,55 +2366,53 @@
         <v>122</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>129</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="25" t="s">
-        <v>170</v>
+      <c r="G13" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="H13" s="21">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>171</v>
+        <v>19</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13" s="8"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="S13" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="T13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15">
@@ -2358,26 +2423,26 @@
         <v>122</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D14" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="H14" s="28">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="24" t="s">
-        <v>174</v>
+      <c r="J14" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2394,19 +2459,19 @@
         <v>19</v>
       </c>
       <c r="Q14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="T14" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15">
@@ -2417,53 +2482,57 @@
         <v>122</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="21">
+        <v>154</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="28">
         <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>178</v>
+        <v>19</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="9"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="T15" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="U15" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -2474,15 +2543,17 @@
         <v>122</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="19"/>
+        <v>154</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="25" t="s">
-        <v>179</v>
+      <c r="G16" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="H16" s="21">
         <v>14</v>
@@ -2490,8 +2561,8 @@
       <c r="I16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="24" t="s">
-        <v>180</v>
+      <c r="J16" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
@@ -2501,26 +2572,26 @@
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="T16" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15">
@@ -2531,24 +2602,26 @@
         <v>122</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="19"/>
+        <v>154</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="G17" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="28">
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="24" t="s">
-        <v>182</v>
+      <c r="J17" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
@@ -2558,26 +2631,26 @@
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="S17" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="S17" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="T17" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15">
@@ -2588,24 +2661,24 @@
         <v>122</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="G18" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="28">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="24" t="s">
-        <v>185</v>
+      <c r="J18" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
@@ -2619,22 +2692,22 @@
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="U18" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15">
@@ -2645,15 +2718,15 @@
         <v>122</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="25" t="s">
-        <v>10</v>
+      <c r="G19" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="H19" s="21">
         <v>17</v>
@@ -2661,26 +2734,38 @@
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="28" t="s">
-        <v>188</v>
+      <c r="J19" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="10"/>
+      <c r="Q19" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="15">
       <c r="A20" s="18" t="s">
@@ -2690,54 +2775,42 @@
         <v>122</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="21">
+      <c r="G20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="28">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="24" t="s">
-        <v>190</v>
+      <c r="J20" s="27" t="s">
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="15">
       <c r="A21" s="18" t="s">
@@ -2747,24 +2820,24 @@
         <v>122</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="G21" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="28">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>191</v>
+      <c r="J21" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2774,26 +2847,28 @@
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="P21" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R21" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R21" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="S21" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15">
@@ -2804,15 +2879,15 @@
         <v>122</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="25" t="s">
-        <v>189</v>
+      <c r="G22" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="H22" s="21">
         <v>20</v>
@@ -2820,8 +2895,8 @@
       <c r="I22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="24" t="s">
-        <v>192</v>
+      <c r="J22" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2831,28 +2906,26 @@
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>193</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O22" s="9"/>
       <c r="P22" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R22" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="S22" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15">
@@ -2863,24 +2936,24 @@
         <v>122</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H23" s="21">
+      <c r="G23" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="28">
         <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="24" t="s">
-        <v>194</v>
+      <c r="J23" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -2890,26 +2963,26 @@
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="S23" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15">
@@ -2920,168 +2993,100 @@
         <v>122</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="G24" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="28">
         <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="24" t="s">
-        <v>195</v>
+      <c r="J24" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>124</v>
+        <v>20</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>10</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15">
-      <c r="A25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>187</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H25" s="21">
-        <v>23</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15">
-      <c r="A26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>187</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="21">
-        <v>24</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="N26" s="8"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>10</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="15">
       <c r="A27" s="4"/>
@@ -3091,7 +3096,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="5"/>
       <c r="J27" s="17"/>
       <c r="K27" s="7"/>
@@ -3451,52 +3456,8 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
-      <c r="A43" s="4"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="10"/>
-    </row>
-    <row r="44" spans="1:21" ht="15">
-      <c r="A44" s="4"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="10"/>
-    </row>
+    <row r="44" spans="1:21" hidden="1"/>
+    <row r="45" spans="1:21" hidden="1"/>
     <row r="46" spans="1:21" hidden="1"/>
     <row r="47" spans="1:21" hidden="1"/>
     <row r="48" spans="1:21" hidden="1"/>
@@ -3508,193 +3469,193 @@
     <row r="54" spans="1:1" hidden="1"/>
     <row r="55" spans="1:1" hidden="1"/>
     <row r="56" spans="1:1" hidden="1"/>
-    <row r="57" spans="1:1" hidden="1"/>
-    <row r="58" spans="1:1" hidden="1"/>
+    <row r="57" spans="1:1" hidden="1">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" hidden="1">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="59" spans="1:1" hidden="1">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:1" hidden="1">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:1" hidden="1">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:1" hidden="1">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:1" hidden="1">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:1" hidden="1">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:1" hidden="1">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:1" hidden="1">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:1" hidden="1">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:1" hidden="1">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:1" hidden="1">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:1" hidden="1">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:1" hidden="1">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:1" hidden="1">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:1" hidden="1">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:1" hidden="1">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:1" hidden="1">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:1" hidden="1">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:1" hidden="1">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:1" hidden="1">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:1" hidden="1">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:1" hidden="1">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:1" hidden="1">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:1" hidden="1">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:1" hidden="1">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1" hidden="1">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1" hidden="1">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" hidden="1">
-      <c r="A94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" hidden="1">
-      <c r="A95" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="94" spans="1:1" hidden="1"/>
+    <row r="95" spans="1:1" hidden="1"/>
     <row r="96" spans="1:1" hidden="1"/>
     <row r="97" hidden="1"/>
     <row r="98" hidden="1"/>
@@ -3856,19 +3817,11 @@
     <row r="254" hidden="1"/>
     <row r="255" hidden="1"/>
     <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
   </sheetData>
-  <autoFilter ref="A1:U26">
+  <autoFilter ref="A1:U24">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3883,6 +3836,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3893,37 +3852,37 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P20:P44 K20:K44 I3:I44 P3:P18 K3:K18</xm:sqref>
+          <xm:sqref>P21:P42 K21:K42 K3:K19 P3:P19 I3:I42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L20:L44 L3:L18</xm:sqref>
+          <xm:sqref>L21:L42 L3:L19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K19:L19</xm:sqref>
+          <xm:sqref>K20:L20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N44</xm:sqref>
+          <xm:sqref>N3:N42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A44</xm:sqref>
+          <xm:sqref>A3:A42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M44</xm:sqref>
+          <xm:sqref>M3:M42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado10/guion04/CN_10_04_02_CO/EscaletaCN_10_04_02F.xlsx
+++ b/fuentes/contenidos/grado10/guion04/CN_10_04_02_CO/EscaletaCN_10_04_02F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$28</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="218">
   <si>
     <t>Asignatura</t>
   </si>
@@ -569,9 +569,6 @@
     <t>Realizar cambios como se muestra en cuaderno</t>
   </si>
   <si>
-    <t>Actividad que permite repasar los principales conceptos de dinámica</t>
-  </si>
-  <si>
     <t>Resuelve un crucigrama sobre la dinámica</t>
   </si>
   <si>
@@ -639,6 +636,51 @@
   </si>
   <si>
     <t>Banco de actividades: Las leyes de las fuerzas</t>
+  </si>
+  <si>
+    <t>Calcula haciendo uso de las características del movimiento circular</t>
+  </si>
+  <si>
+    <t>Recurso M5A-01</t>
+  </si>
+  <si>
+    <t>Actividad que permite repasara cálculos asociados a las variables características del movimiento circular</t>
+  </si>
+  <si>
+    <t>Identifica la fuerza centrífuga</t>
+  </si>
+  <si>
+    <t>Actividad que permite comparar la fuerza centrípeta y centrífuga</t>
+  </si>
+  <si>
+    <t>Recurso M101-02</t>
+  </si>
+  <si>
+    <t>Actividad que permite repasar los principales conceptos de la dinámica en general</t>
+  </si>
+  <si>
+    <t>Evalua tus conocimientos sobre la fuerza de rozamiento</t>
+  </si>
+  <si>
+    <t>Evalua tus conocimientos sobre conceptos de dinámica</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: identifica las leyes de Newton</t>
+  </si>
+  <si>
+    <t>Actividad de reconocimiento de las leyes de Newton</t>
+  </si>
+  <si>
+    <t>Recurso M5A-02</t>
+  </si>
+  <si>
+    <t>Competencias: experimentando con fuerzas y aceleración</t>
+  </si>
+  <si>
+    <t>Actividad que propone un experimento para determinar el coeficiente de rozamiento cinético y estático</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-01</t>
   </si>
 </sst>
 </file>
@@ -837,7 +879,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1011,8 +1053,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1076,34 +1140,58 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,50 +1200,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="195">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1242,6 +1309,17 @@
     <cellStyle name="Hipervínculo" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1328,6 +1406,17 @@
     <cellStyle name="Hipervínculo visitado" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1645,11 +1734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U256"/>
+  <dimension ref="A1:U260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1677,25 +1766,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>112</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="35" t="s">
@@ -1704,67 +1793,67 @@
       <c r="I1" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="52" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="43" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="52"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
@@ -1774,17 +1863,17 @@
         <v>122</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>134</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" s="28"/>
-      <c r="G3" s="55" t="s">
-        <v>186</v>
+      <c r="G3" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -1792,8 +1881,8 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="56" t="s">
-        <v>189</v>
+      <c r="J3" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>20</v>
@@ -1813,13 +1902,13 @@
         <v>10</v>
       </c>
       <c r="R3" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>192</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>131</v>
@@ -1833,17 +1922,17 @@
         <v>122</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>134</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H4" s="21">
         <v>2</v>
@@ -1852,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1878,7 +1967,7 @@
         <v>130</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U4" s="10" t="s">
         <v>131</v>
@@ -1892,17 +1981,17 @@
         <v>122</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H5" s="28">
         <v>3</v>
@@ -1911,7 +2000,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1931,13 +2020,13 @@
         <v>10</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>191</v>
-      </c>
       <c r="T5" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U5" s="10" t="s">
         <v>131</v>
@@ -1951,13 +2040,13 @@
         <v>122</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>134</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="24" t="s">
@@ -2010,7 +2099,7 @@
         <v>122</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>134</v>
@@ -2069,7 +2158,7 @@
         <v>122</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>134</v>
@@ -2081,7 +2170,7 @@
       <c r="G8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="31">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -2130,7 +2219,7 @@
         <v>122</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>134</v>
@@ -2142,7 +2231,7 @@
       <c r="G9" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="31">
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -2189,7 +2278,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>134</v>
@@ -2248,53 +2337,55 @@
         <v>122</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="28">
+        <v>212</v>
+      </c>
+      <c r="H11" s="31">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>123</v>
+        <v>20</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>10</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15">
@@ -2305,40 +2396,36 @@
         <v>122</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>128</v>
-      </c>
+      <c r="E12" s="19"/>
       <c r="F12" s="9"/>
       <c r="G12" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="28">
+        <v>149</v>
+      </c>
+      <c r="H12" s="31">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>151</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="9" t="s">
         <v>19</v>
       </c>
@@ -2352,7 +2439,7 @@
         <v>132</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>133</v>
@@ -2366,53 +2453,53 @@
         <v>122</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="9"/>
       <c r="G13" s="24" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="H13" s="21">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N13" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>123</v>
+        <v>20</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>10</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15">
@@ -2423,29 +2510,27 @@
         <v>122</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>158</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="9"/>
       <c r="G14" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="28">
+        <v>203</v>
+      </c>
+      <c r="H14" s="31">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>8</v>
@@ -2458,20 +2543,20 @@
       <c r="P14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="10" t="s">
-        <v>123</v>
+      <c r="Q14" s="10">
+        <v>10</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15">
@@ -2482,39 +2567,39 @@
         <v>122</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>161</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="28">
+        <v>152</v>
+      </c>
+      <c r="H15" s="31">
         <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="25" t="s">
-        <v>127</v>
+      <c r="N15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2526,13 +2611,13 @@
         <v>124</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -2543,37 +2628,35 @@
         <v>122</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>128</v>
-      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="9"/>
       <c r="G16" s="24" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H16" s="21">
         <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="8"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9" t="s">
         <v>19</v>
@@ -2588,7 +2671,7 @@
         <v>125</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>126</v>
@@ -2602,26 +2685,26 @@
         <v>122</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>154</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="28">
+        <v>159</v>
+      </c>
+      <c r="H17" s="31">
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
@@ -2647,7 +2730,7 @@
         <v>125</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>126</v>
@@ -2661,36 +2744,40 @@
         <v>122</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>161</v>
+      </c>
       <c r="G18" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="28">
+        <v>162</v>
+      </c>
+      <c r="H18" s="31">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="9"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
       </c>
@@ -2704,7 +2791,7 @@
         <v>125</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>126</v>
@@ -2718,15 +2805,17 @@
         <v>122</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="19"/>
+        <v>154</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H19" s="21">
         <v>17</v>
@@ -2735,7 +2824,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -2745,11 +2834,11 @@
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>123</v>
@@ -2761,7 +2850,7 @@
         <v>125</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>126</v>
@@ -2775,42 +2864,56 @@
         <v>122</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="13"/>
+        <v>154</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="28">
+        <v>168</v>
+      </c>
+      <c r="H20" s="31">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="27" t="s">
-        <v>187</v>
+      <c r="J20" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="N20" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="O20" s="9"/>
-      <c r="P20" s="25" t="s">
+      <c r="P20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="10"/>
+      <c r="Q20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="15">
       <c r="A21" s="18" t="s">
@@ -2820,24 +2923,24 @@
         <v>122</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="E21" s="19"/>
       <c r="F21" s="9"/>
       <c r="G21" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="28">
+        <v>172</v>
+      </c>
+      <c r="H21" s="31">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2847,13 +2950,11 @@
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>179</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>123</v>
@@ -2862,13 +2963,13 @@
         <v>124</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15">
@@ -2879,15 +2980,15 @@
         <v>122</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="9"/>
       <c r="G22" s="24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H22" s="21">
         <v>20</v>
@@ -2896,7 +2997,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2906,11 +3007,11 @@
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>123</v>
@@ -2919,13 +3020,13 @@
         <v>124</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15">
@@ -2936,27 +3037,27 @@
         <v>122</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="E23" s="19"/>
       <c r="F23" s="9"/>
       <c r="G23" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="28">
+        <v>215</v>
+      </c>
+      <c r="H23" s="31">
         <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>8</v>
@@ -2969,20 +3070,20 @@
       <c r="P23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="10" t="s">
-        <v>123</v>
+      <c r="Q23" s="10">
+        <v>10</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15">
@@ -2993,7 +3094,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>177</v>
@@ -3001,138 +3102,264 @@
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="H24" s="28">
+        <v>10</v>
+      </c>
+      <c r="H24" s="21">
         <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="23" t="s">
-        <v>202</v>
+      <c r="J24" s="27" t="s">
+        <v>186</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M24" s="8"/>
-      <c r="N24" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="N24" s="8"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>10</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="T24" s="12" t="s">
+      <c r="P24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="10"/>
+    </row>
+    <row r="25" spans="1:21" ht="15">
+      <c r="A25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="U24" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="6"/>
+      <c r="G25" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="31">
+        <v>23</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="10"/>
+      <c r="N25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
+      <c r="G26" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="21">
+        <v>24</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="10"/>
+      <c r="P26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="27" spans="1:21" ht="15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="6"/>
+      <c r="G27" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="31">
+        <v>25</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="N27" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="10"/>
+      <c r="P27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="28" spans="1:21" ht="15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="6"/>
+      <c r="G28" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="21">
+        <v>26</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="N28" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="10"/>
+      <c r="P28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>10</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="29" spans="1:21" ht="15">
       <c r="A29" s="4"/>
@@ -3142,7 +3369,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="5"/>
       <c r="J29" s="17"/>
       <c r="K29" s="7"/>
@@ -3456,10 +3683,98 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="44" spans="1:21" hidden="1"/>
-    <row r="45" spans="1:21" hidden="1"/>
-    <row r="46" spans="1:21" hidden="1"/>
-    <row r="47" spans="1:21" hidden="1"/>
+    <row r="43" spans="1:21" ht="15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="10"/>
+    </row>
+    <row r="44" spans="1:21" ht="15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="10"/>
+    </row>
+    <row r="45" spans="1:21" ht="15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="10"/>
+    </row>
+    <row r="46" spans="1:21" ht="15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="10"/>
+    </row>
     <row r="48" spans="1:21" hidden="1"/>
     <row r="49" spans="1:1" hidden="1"/>
     <row r="50" spans="1:1" hidden="1"/>
@@ -3469,210 +3784,210 @@
     <row r="54" spans="1:1" hidden="1"/>
     <row r="55" spans="1:1" hidden="1"/>
     <row r="56" spans="1:1" hidden="1"/>
-    <row r="57" spans="1:1" hidden="1">
-      <c r="A57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" hidden="1">
-      <c r="A58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" hidden="1">
-      <c r="A59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" hidden="1">
-      <c r="A60" t="s">
-        <v>96</v>
-      </c>
-    </row>
+    <row r="57" spans="1:1" hidden="1"/>
+    <row r="58" spans="1:1" hidden="1"/>
+    <row r="59" spans="1:1" hidden="1"/>
+    <row r="60" spans="1:1" hidden="1"/>
     <row r="61" spans="1:1" hidden="1">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:1" hidden="1">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:1" hidden="1">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:1" hidden="1">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:1" hidden="1">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:1" hidden="1">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:1" hidden="1">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:1" hidden="1">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:1" hidden="1">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:1" hidden="1">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:1" hidden="1">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:1" hidden="1">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:1" hidden="1">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:1" hidden="1">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:1" hidden="1">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:1" hidden="1">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:1" hidden="1">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:1" hidden="1">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:1" hidden="1">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:1" hidden="1">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:1" hidden="1">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:1" hidden="1">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:1" hidden="1">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:1" hidden="1">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:1" hidden="1">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" hidden="1">
+      <c r="A94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" hidden="1">
+      <c r="A95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" hidden="1">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" hidden="1">
+      <c r="A97" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1"/>
-    <row r="95" spans="1:1" hidden="1"/>
-    <row r="96" spans="1:1" hidden="1"/>
-    <row r="97" hidden="1"/>
-    <row r="98" hidden="1"/>
-    <row r="99" hidden="1"/>
-    <row r="100" hidden="1"/>
-    <row r="101" hidden="1"/>
-    <row r="102" hidden="1"/>
-    <row r="103" hidden="1"/>
-    <row r="104" hidden="1"/>
-    <row r="105" hidden="1"/>
-    <row r="106" hidden="1"/>
-    <row r="107" hidden="1"/>
-    <row r="108" hidden="1"/>
-    <row r="109" hidden="1"/>
-    <row r="110" hidden="1"/>
-    <row r="111" hidden="1"/>
-    <row r="112" hidden="1"/>
+    <row r="98" spans="1:1" hidden="1"/>
+    <row r="99" spans="1:1" hidden="1"/>
+    <row r="100" spans="1:1" hidden="1"/>
+    <row r="101" spans="1:1" hidden="1"/>
+    <row r="102" spans="1:1" hidden="1"/>
+    <row r="103" spans="1:1" hidden="1"/>
+    <row r="104" spans="1:1" hidden="1"/>
+    <row r="105" spans="1:1" hidden="1"/>
+    <row r="106" spans="1:1" hidden="1"/>
+    <row r="107" spans="1:1" hidden="1"/>
+    <row r="108" spans="1:1" hidden="1"/>
+    <row r="109" spans="1:1" hidden="1"/>
+    <row r="110" spans="1:1" hidden="1"/>
+    <row r="111" spans="1:1" hidden="1"/>
+    <row r="112" spans="1:1" hidden="1"/>
     <row r="113" hidden="1"/>
     <row r="114" hidden="1"/>
     <row r="115" hidden="1"/>
@@ -3817,11 +4132,21 @@
     <row r="254" hidden="1"/>
     <row r="255" hidden="1"/>
     <row r="256" hidden="1"/>
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
   </sheetData>
-  <autoFilter ref="A1:U24">
+  <autoFilter ref="A1:U28">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3836,12 +4161,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3852,37 +4171,37 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P21:P42 K21:K42 K3:K19 P3:P19 I3:I42</xm:sqref>
+          <xm:sqref>P25:P46 K25:K46 K3:K23 P3:P23 I3:I46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L21:L42 L3:L19</xm:sqref>
+          <xm:sqref>L25:L46 L3:L23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K20:L20</xm:sqref>
+          <xm:sqref>K24:L24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N42</xm:sqref>
+          <xm:sqref>N3:N46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A42</xm:sqref>
+          <xm:sqref>A3:A46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M42</xm:sqref>
+          <xm:sqref>M3:M46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
